--- a/homework/02.html-css-basics/html-css-basics.xlsx
+++ b/homework/02.html-css-basics/html-css-basics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>С помощта на HTML и CSS създайте страница коята съдържа таблица точно копие на таблицата от картинката с име "colored-table-task.png" с папка images</t>
   </si>
@@ -26,6 +26,33 @@
   </si>
   <si>
     <t>images/colored-table-task.png</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>georgraphy.html</t>
+  </si>
+  <si>
+    <t>foot.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Начална страница - тук трябва да имате снимка на житотното и кратка информация за него. Страницата трябва да съдържа меню с линкове към останалите 2 страници.  Не пропускайте да споменете рода и семейството на животното. Тази страница трябва да има едноцветен фон с цвят по избор. </t>
+  </si>
+  <si>
+    <t>3. Страница за нещата, с които се храни определеното животно с име foot.html. Страницата трябва да съдържа неподреден списък с храните, които предпочита животното.  Препоръчително е различните храни да имат различен цвят на текста и фона. Тази страница трябва да има картинка за фон.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Страница за мястото където живее съответното животно. В тази страница трябва да включите неподреден списък с местата, където може да се срещне съответното животно. Препоръчително е да добавите карта на местностите, която представлява снимка. </t>
+  </si>
+  <si>
+    <t>Направете уеб сайт за предварително зададено животно. Сайтът трябва да се състои от 3 страници. Всяка страница трябва да има header, заглавие и footer и да съдържа поне 2 различни шрифта.</t>
+  </si>
+  <si>
+    <t>images/text-task.PNG</t>
+  </si>
+  <si>
+    <t>Направете страница, която изглежда както картинката с име text-task.png. Шрифтовете са Tahoma, Geneva, sans-serif. Размерът е 16px;</t>
   </si>
 </sst>
 </file>
@@ -69,16 +96,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,32 +415,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="85.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
